--- a/checklist_13234612.xlsx
+++ b/checklist_13234612.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t xml:space="preserve">CHECKLIST</t>
   </si>
@@ -129,150 +129,155 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Yes, This code uses OpenMP for parallelisation. Makefile edited to compile/link with -fopenmp flag. 
+Tested on Windows 11 with GCC 15.1.0 (MinGW-W64). OpenMP is included 
+in standard GCC installations."</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Indicate ‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">’ or ‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">No</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">’.  This file is required for marking, even if you have used Visual Studio Code, Clion, etc. to develop your codes.  The </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">makefile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> should suffice for building the executable from your codes.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SOURCE_CODES</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Source Codes (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*.cpp, *.h</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Have you included</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">all your source code files? </t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Indicate ‘</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Yes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">’ or ‘</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">No</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">’.  This file is required for marking, even if you have used Visual Studio Code, Clion, etc. to develop your codes.  The </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">makefile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> should suffice for building the executable from your codes.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SOURCE_CODES</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Source Codes (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*.cpp, *.h</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Have you included</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">all your source code files? </t>
-    </r>
   </si>
   <si>
     <r>
@@ -1098,96 +1103,100 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1442,382 +1451,382 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="50.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="47.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="50.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="29.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F5" s="11" t="n">
         <v>13234612</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+    <row r="10" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+      <c r="A11" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+    <row r="13" customFormat="false" ht="111.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="D14" s="17" t="s">
         <v>33</v>
       </c>
+      <c r="E14" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+      <c r="A15" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="17" t="s">
         <v>37</v>
       </c>
+      <c r="E15" s="16" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="86.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="18" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="15" t="s">
+      <c r="C16" s="19" t="s">
         <v>40</v>
       </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+      <c r="A17" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
-      <c r="B18" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="20" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="C18" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="D18" s="17" t="s">
         <v>46</v>
       </c>
+      <c r="E18" s="22" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="20" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="21"/>
+      <c r="C19" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
-      <c r="B20" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="20" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="21"/>
+      <c r="C20" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
+      <c r="A21" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="15" t="s">
+      <c r="C21" s="21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
+      <c r="D21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>56</v>
       </c>
+      <c r="D22" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
+      <c r="A23" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="15" t="s">
+      <c r="C23" s="16" t="s">
         <v>59</v>
       </c>
+      <c r="D23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="15" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="16" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="15" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="15" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="16" t="s">
         <v>63</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
